--- a/Internet/Form Authentication/Form_Authentication.xlsx
+++ b/Internet/Form Authentication/Form_Authentication.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -54,9 +54,6 @@
     <t>PASS</t>
   </si>
   <si>
-    <t>Скриншот: Test_ID_01</t>
-  </si>
-  <si>
     <t>Chrome Версия: 140.0.7339.129 (Официальная сборка) (64 бит)
 Windows 10</t>
   </si>
@@ -72,9 +69,6 @@
     <t>Появляется ошибка "Your password is invalid!"</t>
   </si>
   <si>
-    <t>Скриншот: Test_ID_02</t>
-  </si>
-  <si>
     <t>Пустые поля</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t>Появляется ошибка "Your username is invalid!"</t>
   </si>
   <si>
-    <t>Скриншот: Test_ID_03</t>
-  </si>
-  <si>
     <t>Спецсимволы в логине</t>
   </si>
   <si>
@@ -98,9 +89,6 @@
   </si>
   <si>
     <t>Появляется ошибка "Your username is invalid!"[</t>
-  </si>
-  <si>
-    <t>Скриншот: Test_ID_04</t>
   </si>
 </sst>
 </file>
@@ -307,7 +295,120 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2819400" cy="1352550"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image3.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2819400" cy="1609725"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2771775" cy="1628775"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2819400" cy="1524000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="image4.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -546,7 +647,7 @@
     <col customWidth="1" min="5" max="5" width="25.13"/>
     <col customWidth="1" min="6" max="6" width="12.5"/>
     <col customWidth="1" min="7" max="7" width="12.25"/>
-    <col customWidth="1" min="8" max="8" width="12.63"/>
+    <col customWidth="1" min="8" max="8" width="37.0"/>
     <col customWidth="1" min="9" max="9" width="60.38"/>
   </cols>
   <sheetData>
@@ -596,7 +697,7 @@
       <c r="Y1" s="7"/>
       <c r="Z1" s="7"/>
     </row>
-    <row r="2">
+    <row r="2" ht="128.25" customHeight="1">
       <c r="A2" s="8">
         <v>1.0</v>
       </c>
@@ -616,11 +717,9 @@
         <v>12</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="9" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
@@ -640,31 +739,29 @@
       <c r="Y2" s="7"/>
       <c r="Z2" s="7"/>
     </row>
-    <row r="3">
+    <row r="3" ht="128.25" customHeight="1">
       <c r="A3" s="8">
         <v>2.0</v>
       </c>
       <c r="B3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="8" t="s">
-        <v>18</v>
-      </c>
+      <c r="H3" s="8"/>
       <c r="I3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="7"/>
@@ -684,31 +781,29 @@
       <c r="Y3" s="7"/>
       <c r="Z3" s="7"/>
     </row>
-    <row r="4">
+    <row r="4" ht="128.25" customHeight="1">
       <c r="A4" s="8">
         <v>3.0</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="E4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7"/>
-      <c r="H4" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="H4" s="8"/>
       <c r="I4" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="7"/>
@@ -728,31 +823,29 @@
       <c r="Y4" s="7"/>
       <c r="Z4" s="7"/>
     </row>
-    <row r="5">
+    <row r="5" ht="128.25" customHeight="1">
       <c r="A5" s="8">
         <v>4.0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="7"/>
-      <c r="H5" s="8" t="s">
-        <v>26</v>
-      </c>
+      <c r="H5" s="8"/>
       <c r="I5" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
